--- a/eva/_results/result_copy.xlsx
+++ b/eva/_results/result_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minghe/llm4faas/eva/_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB46A865-41BF-FF42-9BD2-A40C3BC09E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C3A87-E017-8644-A02F-0D1985E85C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="20980" activeTab="1" xr2:uid="{722548EF-65F8-7844-B682-C9AB7C87B0A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{722548EF-65F8-7844-B682-C9AB7C87B0A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Adapt" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="392">
   <si>
     <t>✅</t>
   </si>
@@ -77,39 +77,15 @@
     <t>invaild prompt (❌import errors, does not import enough calling function)</t>
   </si>
   <si>
-    <t>✅❌(there are 2 lights in bedroom, only find 1)</t>
-  </si>
-  <si>
     <t>invaild prompt</t>
   </si>
   <si>
-    <t>✅ (Only operates 1 actuator, possibly because there is only 1 light in the living room of the house. Not sure what happens if there are multiple lights like in the bedroom)</t>
-  </si>
-  <si>
-    <t>✅❌(there are 2 ACs at home, only find 1; neither add new feature for the non-exist AC mode, not print any error message)</t>
-  </si>
-  <si>
-    <t>❌AttributeError for TV, calling an non-exist function; wrongly consider Heater to be water cooker</t>
-  </si>
-  <si>
-    <t>❌ Import Error for AC and Cleaning Robot, i.e., all related actuators; it assumes that when all sensors are off, there is nobody at home)</t>
-  </si>
-  <si>
     <t>✅(this function is the 'generic' function that I would like to have :D)</t>
   </si>
   <si>
-    <t>(❌(light should be turned on before set brightness)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fixed Plans</t>
   </si>
   <si>
-    <t>✅❌ (only open the living room windows, and only 1 out of 2 windows)</t>
-  </si>
-  <si>
-    <t>✅❌ (only contron 1 light in the bedroom, but there are 2; has already support the auto-adapt functionality)</t>
-  </si>
-  <si>
     <t>no function is generated</t>
   </si>
   <si>
@@ -155,15 +131,6 @@
     <t>✅ (neither add new feature for the unexist Cleaning robot modes, not print any error message)</t>
   </si>
   <si>
-    <t>cannot get sensor readings, but it called AC's adjust_temperature function; neither add new feature for the non-exist AC mode, not print any error message</t>
-  </si>
-  <si>
-    <t>Type Error, but temp adjust logic is right; neither add new feature for the non-exist TV mode, not print any error message; ignor water cooker requirements</t>
-  </si>
-  <si>
-    <t>implement 4 required modes; but does not turn on actuators before calling functions</t>
-  </si>
-  <si>
     <t>Type Error</t>
   </si>
   <si>
@@ -206,9 +173,6 @@
     <t>Type error</t>
   </si>
   <si>
-    <t>✅ can as requried turn off the light; additionally would like to set brightness, but does not turn on light first</t>
-  </si>
-  <si>
     <t>only turn on light in the living room</t>
   </si>
   <si>
@@ -230,9 +194,6 @@
     <t>Movie</t>
   </si>
   <si>
-    <t>only operates Kitchen Light</t>
-  </si>
-  <si>
     <t>Humidity</t>
   </si>
   <si>
@@ -269,9 +230,6 @@
     <t>use different light intensity sensors' readings trigger bedroom actuators multiple times</t>
   </si>
   <si>
-    <t>as the light is currently off, the function cannot set brightness level to low</t>
-  </si>
-  <si>
     <t>import error; ✅</t>
   </si>
   <si>
@@ -455,15 +413,9 @@
     <t>provide home gui function; Name Error</t>
   </si>
   <si>
-    <t>Type Error- need to turn on sensors before getting readings; ✅</t>
-  </si>
-  <si>
     <t>Import errors; ✅</t>
   </si>
   <si>
-    <t>outdoor temperature sensor is in the balcony, not living room which specificed in the function</t>
-  </si>
-  <si>
     <t>Import error; ✅</t>
   </si>
   <si>
@@ -512,9 +464,6 @@
     <t>send notification about enviroment situation, but does not adjust them using actuators</t>
   </si>
   <si>
-    <t>cannot adjust light correctly, the function use if an actuator has turn on/off function to figure if this actuator is Light or not. But every actuator has turn on/off function</t>
-  </si>
-  <si>
     <t>use one sensor reading to control all realted actuators at home</t>
   </si>
   <si>
@@ -530,12 +479,6 @@
     <t>cannot get sensor readings; does not keep humidity less than 30% as required</t>
   </si>
   <si>
-    <t>do not use the threshold in the prompt; prompt requires using ac to adjust humidity</t>
-  </si>
-  <si>
-    <t>does not use threshold in the prompt;</t>
-  </si>
-  <si>
     <t>TypeError; cannot get sensor reading</t>
   </si>
   <si>
@@ -809,9 +752,6 @@
     <t>does not turn on Light before setting brightness</t>
   </si>
   <si>
-    <t>does not turn on Light&amp;MusicPlayer before using them</t>
-  </si>
-  <si>
     <t>NameError(import); ✅</t>
   </si>
   <si>
@@ -854,9 +794,6 @@
     <t>red: not pass/does not understand prompt</t>
   </si>
   <si>
-    <t>✅ can only control the first light at a specific room(bedroom); neither add new feature for the unexist Cleaning robot modes, not print any error message</t>
-  </si>
-  <si>
     <t>ModuleNotFoundError; one argument in the function should be 'smart socket' but it writes 'actuator'</t>
   </si>
   <si>
@@ -1154,9 +1091,6 @@
     <t>cannot get sensor readings;only trigger one window</t>
   </si>
   <si>
-    <t>cannot find outdoor sensor in the living room</t>
-  </si>
-  <si>
     <t>cannot find sensors</t>
   </si>
   <si>
@@ -1166,9 +1100,6 @@
     <t>cannot  find the right acutator</t>
   </si>
   <si>
-    <t>there is no ac in the balcony</t>
-  </si>
-  <si>
     <t>every sensor will trigger all related actuators</t>
   </si>
   <si>
@@ -1230,6 +1161,60 @@
   </si>
   <si>
     <t>cannot find lights in the bedroom</t>
+  </si>
+  <si>
+    <t>only trigger one light when there are multiple ones</t>
+  </si>
+  <si>
+    <t>there are 2 ACs at home, only find 1</t>
+  </si>
+  <si>
+    <t>AttributeError for TV, calling an non-exist function; wrongly consider Heater to be water cooker</t>
+  </si>
+  <si>
+    <t>only open the living room windows, and only 1 out of 2 windows</t>
+  </si>
+  <si>
+    <t>only contron 1 light in the bedroom, but there are 2; has already support the auto-adapt functionality</t>
+  </si>
+  <si>
+    <t>Import Error for AC and Cleaning Robot✅, i.e., all related actuators; it assumes that when all sensors are off, there is nobody at home)</t>
+  </si>
+  <si>
+    <t>cannot adjust light correctly, this function uses whether an actuator has a turn_on/off method to determine whether that actuator is a light or not. However, each actuator has an on/off function.</t>
+  </si>
+  <si>
+    <t>only operates Kitchen and Living Room Light</t>
+  </si>
+  <si>
+    <t>use one sensor reading triggers all ac/heater at home.</t>
+  </si>
+  <si>
+    <t>Type Error, cannot get sensor readings; ✅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not ues outdoor sensor reading </t>
+  </si>
+  <si>
+    <t>control logic is not correct</t>
+  </si>
+  <si>
+    <t>Type Error, but temp adjust logic is right; ignore water cooker(unexist device) requirements</t>
+  </si>
+  <si>
+    <t>implement 4 required modes; but does not turn on notification sender before sending msgs</t>
+  </si>
+  <si>
+    <t>does not turn on Light&amp;MusicPlayer before usage</t>
+  </si>
+  <si>
+    <t>✅ can as requried turn off the light; additionally the function would like to set brightness, but does not turn on light first</t>
+  </si>
+  <si>
+    <t>only control the first light at a specific room(bedroom)</t>
+  </si>
+  <si>
+    <t>prompt requires using ac to adjust humidity</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1276,6 +1261,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1986,7 +1977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2045,9 +2036,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2083,9 +2071,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2103,9 +2088,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2329,6 +2311,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2517,51 +2526,51 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2592,17 +2601,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2939,10 +2945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AACEB2-C3D8-D545-89AD-0002029F9000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2955,1341 +2964,1341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="180" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-    </row>
-    <row r="2" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179"/>
-      <c r="B2" s="141" t="s">
+      <c r="B1" s="186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+    </row>
+    <row r="2" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="185"/>
+      <c r="B2" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="141" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="147" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142" t="s">
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142" t="s">
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="179"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="169" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="130" t="s">
-        <v>352</v>
-      </c>
-      <c r="I4" s="130" t="s">
-        <v>352</v>
-      </c>
-      <c r="J4" s="130" t="s">
-        <v>352</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" s="167"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="155" t="s">
-        <v>295</v>
-      </c>
-      <c r="R4" s="156"/>
-      <c r="S4" s="157"/>
+      <c r="B4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="127" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="127" t="s">
+        <v>331</v>
+      </c>
+      <c r="J4" s="127" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" s="172" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="173"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="161" t="s">
+        <v>274</v>
+      </c>
+      <c r="R4" s="162"/>
+      <c r="S4" s="163"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="175" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="177"/>
+      <c r="B5" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
       <c r="E5" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="N5" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="164"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="R5" s="149"/>
-      <c r="S5" s="150"/>
+        <v>148</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="N5" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="170"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="154" t="s">
+        <v>275</v>
+      </c>
+      <c r="R5" s="155"/>
+      <c r="S5" s="156"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="182" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="186"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="130" t="s">
-        <v>354</v>
-      </c>
-      <c r="I6" s="130" t="s">
-        <v>354</v>
-      </c>
-      <c r="J6" s="130" t="s">
-        <v>354</v>
-      </c>
-      <c r="K6" s="88" t="s">
-        <v>206</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="N6" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="164"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="148" t="s">
-        <v>297</v>
-      </c>
-      <c r="R6" s="149"/>
-      <c r="S6" s="150"/>
+      <c r="B6" s="188" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="170"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="R6" s="155"/>
+      <c r="S6" s="156"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="175" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="182" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="183"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="164"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="148" t="s">
-        <v>298</v>
-      </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="150"/>
+      <c r="B7" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="182"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="189"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="154" t="s">
+        <v>277</v>
+      </c>
+      <c r="R7" s="155"/>
+      <c r="S7" s="156"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="185" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="186"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="I8" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="J8" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="K8" s="172" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="173"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="164"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="R8" s="149"/>
-      <c r="S8" s="150"/>
+      <c r="B8" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="191" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="192"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="K8" s="178" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="179"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="170"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="154" t="s">
+        <v>278</v>
+      </c>
+      <c r="R8" s="155"/>
+      <c r="S8" s="156"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="182" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="183"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="I9" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="J9" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="K9" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="M9" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="N9" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="164"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="148" t="s">
-        <v>300</v>
-      </c>
-      <c r="R9" s="149"/>
-      <c r="S9" s="150"/>
+      <c r="B9" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="188" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="189"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="170"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="154" t="s">
+        <v>279</v>
+      </c>
+      <c r="R9" s="155"/>
+      <c r="S9" s="156"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="185" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="175" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="176"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="163" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" s="164"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="148" t="s">
-        <v>301</v>
-      </c>
-      <c r="R10" s="149"/>
-      <c r="S10" s="150"/>
+      <c r="B10" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="191" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="192"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="181" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="182"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="154" t="s">
+        <v>280</v>
+      </c>
+      <c r="R10" s="155"/>
+      <c r="S10" s="156"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="130" t="s">
-        <v>265</v>
-      </c>
-      <c r="J11" s="130" t="s">
-        <v>358</v>
-      </c>
-      <c r="K11" s="175" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="176"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="163" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" s="164"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="R11" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="S11" s="82" t="s">
-        <v>302</v>
+      <c r="B11" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="K11" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="182"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="170"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="R11" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S11" s="79" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="205" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="206"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="I12" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="J12" s="83" t="s">
-        <v>357</v>
+      <c r="B12" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="211" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="212"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>336</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N12" s="163" t="s">
-        <v>136</v>
-      </c>
-      <c r="O12" s="164"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="149"/>
-      <c r="S12" s="150"/>
+        <v>199</v>
+      </c>
+      <c r="N12" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="170"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="154" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="155"/>
+      <c r="S12" s="156"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="J13" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="N13" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="164"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="148" t="s">
-        <v>303</v>
-      </c>
-      <c r="R13" s="149"/>
-      <c r="S13" s="150"/>
+      <c r="B13" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="N13" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="154" t="s">
+        <v>282</v>
+      </c>
+      <c r="R13" s="155"/>
+      <c r="S13" s="156"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="185" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="186"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="84" t="s">
+      <c r="B14" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="191" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="N14" s="163" t="s">
-        <v>137</v>
-      </c>
-      <c r="O14" s="164"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="151" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="152"/>
-      <c r="S14" s="153"/>
+        <v>205</v>
+      </c>
+      <c r="N14" s="169" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="157" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="158"/>
+      <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="193" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
+      <c r="B15" s="199" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="200"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="208" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="187"/>
-      <c r="H15" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="I15" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="J15" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="M15" s="53" t="s">
-        <v>226</v>
+        <v>160</v>
+      </c>
+      <c r="F15" s="214" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="193"/>
+      <c r="H15" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>207</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="R15" s="154" t="s">
-        <v>304</v>
-      </c>
-      <c r="S15" s="150"/>
+      <c r="Q15" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="R15" s="160" t="s">
+        <v>283</v>
+      </c>
+      <c r="S15" s="156"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="185" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="186"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="83" t="s">
-        <v>359</v>
-      </c>
-      <c r="I16" s="83" t="s">
-        <v>359</v>
-      </c>
-      <c r="J16" s="83" t="s">
-        <v>359</v>
+      <c r="B16" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="191" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="192"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="80" t="s">
+        <v>338</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="N16" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="164"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="148" t="s">
-        <v>305</v>
-      </c>
-      <c r="R16" s="149"/>
-      <c r="S16" s="150"/>
+        <v>211</v>
+      </c>
+      <c r="N16" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="170"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="154" t="s">
+        <v>284</v>
+      </c>
+      <c r="R16" s="155"/>
+      <c r="S16" s="156"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="182" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="83" t="s">
-        <v>360</v>
-      </c>
-      <c r="I17" s="83" t="s">
-        <v>360</v>
-      </c>
-      <c r="J17" s="83" t="s">
-        <v>360</v>
+      <c r="B17" s="188" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>339</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M17" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="N17" s="163" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="164"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="151" t="s">
-        <v>306</v>
-      </c>
-      <c r="R17" s="152"/>
-      <c r="S17" s="153"/>
+        <v>214</v>
+      </c>
+      <c r="M17" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="N17" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="157" t="s">
+        <v>285</v>
+      </c>
+      <c r="R17" s="158"/>
+      <c r="S17" s="159"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="186"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="83" t="s">
-        <v>361</v>
-      </c>
-      <c r="I18" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="J18" s="83" t="s">
-        <v>363</v>
-      </c>
-      <c r="K18" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="L18" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="M18" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="N18" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="164"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="R18" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="S18" s="82" t="s">
-        <v>309</v>
+      <c r="B18" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="191" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="192"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="J18" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>215</v>
+      </c>
+      <c r="L18" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="M18" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="N18" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="170"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="S18" s="79" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="199" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="83" t="s">
-        <v>364</v>
-      </c>
-      <c r="J19" s="83" t="s">
-        <v>355</v>
+      <c r="B19" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="206"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19" s="80" t="s">
+        <v>334</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="R19" s="82" t="s">
-        <v>310</v>
-      </c>
-      <c r="S19" s="82" t="s">
-        <v>213</v>
+      <c r="Q19" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="R19" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="S19" s="79" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="196" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="182" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="183"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="83" t="s">
-        <v>365</v>
+      <c r="B20" s="202" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="203"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="188" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="189"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>344</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N20" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="164"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="R20" s="149"/>
-      <c r="S20" s="150"/>
+        <v>126</v>
+      </c>
+      <c r="N20" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
+      <c r="Q20" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="R20" s="155"/>
+      <c r="S20" s="156"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="186"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="130" t="s">
-        <v>265</v>
-      </c>
-      <c r="I21" s="130" t="s">
-        <v>265</v>
-      </c>
-      <c r="J21" s="130" t="s">
-        <v>265</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="M21" s="53" t="s">
+      <c r="B21" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="191" t="s">
         <v>165</v>
       </c>
-      <c r="N21" s="163" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" s="164"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="R21" s="149"/>
-      <c r="S21" s="150"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="I21" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="127" t="s">
+        <v>245</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="170"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="R21" s="155"/>
+      <c r="S21" s="156"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="175" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="182" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="183"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I22" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="J22" s="83" t="s">
-        <v>366</v>
+      <c r="B22" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="189"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="J22" s="80" t="s">
+        <v>345</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="N22" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="164"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150"/>
+        <v>222</v>
+      </c>
+      <c r="N22" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="170"/>
+      <c r="P22" s="171"/>
+      <c r="Q22" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="R22" s="155"/>
+      <c r="S22" s="156"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="186"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="83" t="s">
-        <v>367</v>
-      </c>
-      <c r="K23" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="L23" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="M23" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="N23" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="164"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="R23" s="149"/>
-      <c r="S23" s="150"/>
+      <c r="B23" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="192"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="N23" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="170"/>
+      <c r="P23" s="171"/>
+      <c r="Q23" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="R23" s="155"/>
+      <c r="S23" s="156"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="84" t="s">
+      <c r="B24" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N24" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="164"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="R24" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24" s="82" t="s">
-        <v>281</v>
+        <v>126</v>
+      </c>
+      <c r="N24" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="170"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="R24" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" s="79" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="196" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="197"/>
-      <c r="D25" s="198"/>
+      <c r="B25" s="202" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="203"/>
+      <c r="D25" s="204"/>
       <c r="E25" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="J25" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="K25" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="L25" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>253</v>
+        <v>181</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="13"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="148" t="s">
-        <v>313</v>
-      </c>
-      <c r="R25" s="149"/>
-      <c r="S25" s="150"/>
+      <c r="Q25" s="154" t="s">
+        <v>292</v>
+      </c>
+      <c r="R25" s="155"/>
+      <c r="S25" s="156"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="J26" s="84" t="s">
+      <c r="B26" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="J26" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N26" s="163" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" s="164"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="151" t="s">
-        <v>294</v>
-      </c>
-      <c r="R26" s="152"/>
-      <c r="S26" s="153"/>
+        <v>126</v>
+      </c>
+      <c r="N26" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="170"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="157" t="s">
+        <v>273</v>
+      </c>
+      <c r="R26" s="158"/>
+      <c r="S26" s="159"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I27" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="J27" s="83" t="s">
-        <v>368</v>
-      </c>
-      <c r="K27" s="159" t="s">
-        <v>247</v>
-      </c>
-      <c r="L27" s="160"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="164"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="R27" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="S27" s="82" t="s">
-        <v>316</v>
+        <v>126</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="J27" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="K27" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="166"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="170"/>
+      <c r="P27" s="171"/>
+      <c r="Q27" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="R27" s="79" t="s">
+        <v>294</v>
+      </c>
+      <c r="S27" s="79" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="202" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="203"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="L28" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="M28" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="N28" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="164"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="R28" s="149"/>
-      <c r="S28" s="150"/>
+      <c r="B28" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="208" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="209"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="N28" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="170"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="R28" s="155"/>
+      <c r="S28" s="156"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>26</v>
       </c>
-      <c r="B29" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I29" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="J29" s="83" t="s">
-        <v>368</v>
-      </c>
-      <c r="K29" s="159" t="s">
-        <v>247</v>
-      </c>
-      <c r="L29" s="160"/>
-      <c r="M29" s="161"/>
+      <c r="B29" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="166"/>
+      <c r="M29" s="167"/>
       <c r="N29" s="15"/>
       <c r="O29" s="16"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="190" t="s">
-        <v>317</v>
-      </c>
-      <c r="R29" s="191"/>
-      <c r="S29" s="192"/>
+      <c r="Q29" s="196" t="s">
+        <v>296</v>
+      </c>
+      <c r="R29" s="197"/>
+      <c r="S29" s="198"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
@@ -4334,73 +4343,73 @@
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="194" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="195"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="195"/>
+      <c r="R32" s="195"/>
+      <c r="S32" s="195"/>
+    </row>
+    <row r="33" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
+      <c r="B33" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="189"/>
-      <c r="M32" s="189"/>
-      <c r="N32" s="189"/>
-      <c r="O32" s="189"/>
-      <c r="P32" s="189"/>
-      <c r="Q32" s="189"/>
-      <c r="R32" s="189"/>
-      <c r="S32" s="189"/>
-    </row>
-    <row r="33" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="144"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="144"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="143" t="s">
-        <v>342</v>
-      </c>
-      <c r="I33" s="144"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="143" t="s">
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="149" t="s">
+        <v>321</v>
+      </c>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="144"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="143" t="s">
+      <c r="L33" s="150"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="144"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="143" t="s">
+      <c r="O33" s="150"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="R33" s="144"/>
-      <c r="S33" s="145"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="151"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B34" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="21">
         <v>15</v>
       </c>
       <c r="D34" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="21">
         <v>0</v>
@@ -4450,16 +4459,16 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B35" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="22">
         <v>7</v>
       </c>
       <c r="D35" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="22">
         <v>9</v>
@@ -4509,7 +4518,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B36" s="23">
         <v>3</v>
@@ -4567,222 +4576,222 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="56">
-        <v>0</v>
-      </c>
-      <c r="C37" s="65">
-        <v>0</v>
-      </c>
-      <c r="D37" s="65">
-        <v>0</v>
-      </c>
-      <c r="E37" s="65">
-        <v>0</v>
-      </c>
-      <c r="F37" s="65">
-        <v>0</v>
-      </c>
-      <c r="G37" s="65">
-        <v>0</v>
-      </c>
-      <c r="H37" s="56">
-        <v>0</v>
-      </c>
-      <c r="I37" s="65">
-        <v>0</v>
-      </c>
-      <c r="J37" s="65">
-        <v>0</v>
-      </c>
-      <c r="K37" s="65">
-        <v>0</v>
-      </c>
-      <c r="L37" s="65">
-        <v>0</v>
-      </c>
-      <c r="M37" s="65">
-        <v>0</v>
-      </c>
-      <c r="N37" s="65">
-        <v>0</v>
-      </c>
-      <c r="O37" s="65">
-        <v>0</v>
-      </c>
-      <c r="P37" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="65">
-        <v>0</v>
-      </c>
-      <c r="R37" s="65">
-        <v>0</v>
-      </c>
-      <c r="S37" s="65">
+      <c r="A37" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="53">
+        <v>0</v>
+      </c>
+      <c r="C37" s="62">
+        <v>0</v>
+      </c>
+      <c r="D37" s="62">
+        <v>0</v>
+      </c>
+      <c r="E37" s="62">
+        <v>0</v>
+      </c>
+      <c r="F37" s="62">
+        <v>0</v>
+      </c>
+      <c r="G37" s="62">
+        <v>0</v>
+      </c>
+      <c r="H37" s="53">
+        <v>0</v>
+      </c>
+      <c r="I37" s="62">
+        <v>0</v>
+      </c>
+      <c r="J37" s="62">
+        <v>0</v>
+      </c>
+      <c r="K37" s="62">
+        <v>0</v>
+      </c>
+      <c r="L37" s="62">
+        <v>0</v>
+      </c>
+      <c r="M37" s="62">
+        <v>0</v>
+      </c>
+      <c r="N37" s="62">
+        <v>0</v>
+      </c>
+      <c r="O37" s="62">
+        <v>0</v>
+      </c>
+      <c r="P37" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="62">
+        <v>0</v>
+      </c>
+      <c r="R37" s="62">
+        <v>0</v>
+      </c>
+      <c r="S37" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="57">
+      <c r="A38" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="54">
         <f t="shared" ref="B38:P38" si="0">SUM(B34:B37)</f>
         <v>26</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L38" s="57">
+      <c r="L38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M38" s="57">
+      <c r="M38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P38" s="57">
+      <c r="P38" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="Q38" s="57">
+      <c r="Q38" s="54">
         <f t="shared" ref="Q38" si="1">SUM(Q34:Q37)</f>
         <v>26</v>
       </c>
-      <c r="R38" s="57">
+      <c r="R38" s="54">
         <f t="shared" ref="R38" si="2">SUM(R34:R37)</f>
         <v>26</v>
       </c>
-      <c r="S38" s="57">
+      <c r="S38" s="54">
         <f t="shared" ref="S38" si="3">SUM(S34:S37)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="B41" s="146">
+    <row r="41" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="152">
         <f>SUM(B34,C34,D34)/SUM(B38:D38)</f>
-        <v>0.57692307692307687</v>
-      </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146">
+        <v>0.60256410256410253</v>
+      </c>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152">
         <f>SUM(E34,F34,G34)/SUM(E38:G38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146">
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152">
         <f>SUM(H34,I34,J34)/SUM(H38:J38)</f>
         <v>0.17948717948717949</v>
       </c>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146">
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152">
         <f>SUM(K34,L34,M34)/SUM(K38:M38)</f>
         <v>6.4102564102564097E-2</v>
       </c>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146">
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152">
         <f>SUM(N34,O34,P34)/SUM(N38:P38)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="146"/>
-      <c r="P41" s="146"/>
-      <c r="Q41" s="146">
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152">
         <f>SUM(Q34,R34,S34)/SUM(Q38:S38)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="146"/>
-      <c r="S41" s="162"/>
-    </row>
-    <row r="42" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="126" t="s">
-        <v>341</v>
-      </c>
-      <c r="B42" s="147">
+      <c r="R41" s="152"/>
+      <c r="S41" s="168"/>
+    </row>
+    <row r="42" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" s="153">
         <f>SUM(B34:D35)/SUM(B38:D38)</f>
         <v>0.87179487179487181</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147">
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153">
         <f>SUM(E34:G35)/SUM(E38:G38)</f>
         <v>0.32051282051282054</v>
       </c>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147">
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153">
         <f>SUM(H34:J35)/SUM(H38:J38)</f>
         <v>0.78205128205128205</v>
       </c>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147">
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153">
         <f>SUM(K34:M35)/SUM(K38:M38)</f>
         <v>0.41025641025641024</v>
       </c>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147">
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153">
         <f>SUM(N34:P35)/SUM(N38:P38)</f>
         <v>0</v>
       </c>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="147">
+      <c r="O42" s="153"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="153">
         <f>SUM(Q34:S35)/SUM(Q38:S38)</f>
         <v>0.11538461538461539</v>
       </c>
-      <c r="R42" s="147"/>
-      <c r="S42" s="158"/>
+      <c r="R42" s="153"/>
+      <c r="S42" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="100">
@@ -4887,7 +4896,8 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="Q8:S8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4895,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE7BA8A-1596-574F-BB58-7598A3EECCCA}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4909,36 +4919,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="210" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
+      <c r="B1" s="216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="209"/>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="215"/>
+      <c r="B2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="85" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" s="85" t="s">
+      <c r="D2" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="82" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4946,576 +4956,576 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="102" t="s">
-        <v>272</v>
+      <c r="B3" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="131" t="s">
-        <v>369</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>273</v>
+      <c r="B4" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>370</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="110" t="s">
-        <v>274</v>
+      <c r="B5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>371</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>275</v>
+      <c r="B6" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="111"/>
+      <c r="B7" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="108"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="103" t="s">
-        <v>276</v>
+      <c r="B8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="131" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>277</v>
+      <c r="B9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="78" t="s">
+      <c r="B10" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="131" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="49" t="s">
+      <c r="C10" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="104" t="s">
-        <v>257</v>
+      <c r="F10" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="132" t="s">
+      <c r="B11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="99" t="s">
         <v>257</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="102" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="107" t="s">
-        <v>258</v>
+      <c r="B12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="131" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="105" t="s">
-        <v>279</v>
+      <c r="B13" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="131" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>280</v>
+      <c r="B14" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>281</v>
+      <c r="B15" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="136" t="s">
-        <v>343</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="111"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="133" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="108"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="136" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="111"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="133" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="108"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="136" t="s">
-        <v>343</v>
-      </c>
-      <c r="E18" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="111" t="s">
-        <v>282</v>
+      <c r="B18" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="133" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="108" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="80" t="s">
+      <c r="B19" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="131" t="s">
-        <v>376</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>283</v>
+      <c r="C19" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="102" t="s">
-        <v>278</v>
+      <c r="B20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="99" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="111" t="s">
-        <v>36</v>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="108" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>284</v>
+      <c r="B22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="103" t="s">
-        <v>285</v>
+      <c r="B23" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="100" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="104" t="s">
-        <v>286</v>
+      <c r="B24" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="101" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>287</v>
+      <c r="B25" s="138" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="131" t="s">
-        <v>377</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="113" t="s">
-        <v>290</v>
+      <c r="B26" s="128" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="110" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="80" t="s">
+      <c r="B27" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="131" t="s">
-        <v>346</v>
-      </c>
-      <c r="E27" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="49" t="s">
+      <c r="C27" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="53" t="s">
-        <v>288</v>
+      <c r="F27" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="113" t="s">
-        <v>289</v>
+      <c r="B28" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="110" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5528,22 +5538,22 @@
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="188" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="189"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
+      <c r="A30" s="194" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B31" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="21">
         <v>0</v>
@@ -5563,10 +5573,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B32" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="22">
         <v>11</v>
@@ -5586,7 +5596,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B33" s="23">
         <v>4</v>
@@ -5608,111 +5618,111 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="56">
+      <c r="A34" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="53">
         <v>5</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="62">
         <v>5</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="53">
         <v>5</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="62">
         <v>5</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="62">
         <v>5</v>
       </c>
-      <c r="G34" s="114">
+      <c r="G34" s="111">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="57">
+      <c r="A35" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="54">
         <f t="shared" ref="B35:G35" si="0">SUM(B31:B33)</f>
         <v>21</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G35" s="57">
+      <c r="G35" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="B38" s="127">
+      <c r="A38" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="124">
         <f t="shared" ref="B38:G38" si="1">B31/B35</f>
-        <v>0.61904761904761907</v>
-      </c>
-      <c r="C38" s="127">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C38" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="127">
+      <c r="D38" s="124">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E38" s="127">
+      <c r="E38" s="124">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F38" s="128">
+      <c r="F38" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G38" s="127">
+      <c r="G38" s="124">
         <f t="shared" si="1"/>
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="126" t="s">
-        <v>341</v>
-      </c>
-      <c r="B39" s="129">
+      <c r="A39" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="126">
         <f t="shared" ref="B39:G39" si="2">SUM(B31,B32)/B35</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="C39" s="129">
+      <c r="C39" s="126">
         <f t="shared" si="2"/>
         <v>0.52380952380952384</v>
       </c>
-      <c r="D39" s="129">
+      <c r="D39" s="126">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="126">
         <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="F39" s="129">
+      <c r="F39" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="129">
+      <c r="G39" s="126">
         <f t="shared" si="2"/>
         <v>0.23809523809523808</v>
       </c>
@@ -5732,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F850FA2-C63D-F443-9008-6A0C00232DF0}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A2" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5754,118 +5764,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-    </row>
-    <row r="2" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179"/>
-      <c r="B2" s="142" t="s">
+      <c r="B1" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+    </row>
+    <row r="2" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="185"/>
+      <c r="B2" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142" t="s">
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142" t="s">
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="223"/>
-      <c r="B3" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>62</v>
+      <c r="A3" s="227"/>
+      <c r="B3" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -5875,44 +5885,44 @@
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>63</v>
+      <c r="C4" s="48" t="s">
+        <v>381</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="215"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="J4" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="214" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="215"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="218"/>
-      <c r="P4" s="219"/>
+      <c r="E4" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="219"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="J4" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="218" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="219"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="222"/>
+      <c r="P4" s="223"/>
       <c r="Q4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="R4" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="R4" s="114" t="s">
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -5920,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -5928,42 +5938,42 @@
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="220" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>380</v>
-      </c>
-      <c r="J5" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="218"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="R5" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="S5" s="101" t="s">
-        <v>323</v>
+      <c r="E5" s="224" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="225"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="J5" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="222"/>
+      <c r="P5" s="223"/>
+      <c r="Q5" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="R5" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="S5" s="98" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -5979,18 +5989,18 @@
       <c r="D6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="117" t="s">
+      <c r="E6" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="219"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="114" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -6000,21 +6010,21 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="N6" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="218"/>
-      <c r="P6" s="219"/>
-      <c r="Q6" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="R6" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="S6" s="101" t="s">
-        <v>324</v>
+        <v>300</v>
+      </c>
+      <c r="N6" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="222"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="R6" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="S6" s="98" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -6036,36 +6046,36 @@
       <c r="F7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="K7" s="175" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="176"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="214" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="215"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="117" t="s">
+      <c r="G7" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="182"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="219"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="114" t="s">
         <v>0</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -6081,37 +6091,37 @@
       <c r="D8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>381</v>
-      </c>
-      <c r="J8" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="193" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="218"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="117" t="s">
+      <c r="E8" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>358</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="199" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="200"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="222"/>
+      <c r="P8" s="223"/>
+      <c r="Q8" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="114" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6119,188 +6129,188 @@
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="I9" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="J9" s="137" t="s">
-        <v>381</v>
-      </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="63"/>
+      <c r="B9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>358</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>358</v>
+      </c>
+      <c r="J9" s="134" t="s">
+        <v>358</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="60"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="175" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="133" t="s">
-        <v>382</v>
-      </c>
-      <c r="J10" s="133" t="s">
-        <v>345</v>
+      <c r="B10" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="181" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="182"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="130" t="s">
+        <v>359</v>
+      </c>
+      <c r="J10" s="130" t="s">
+        <v>324</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" s="218"/>
-      <c r="P10" s="219"/>
+      <c r="L10" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="222"/>
+      <c r="P10" s="223"/>
       <c r="Q10" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="R10" s="86" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>305</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="224" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="225"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="133" t="s">
-        <v>383</v>
-      </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="227"/>
-      <c r="O11" s="228"/>
-      <c r="P11" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="118" t="s">
-        <v>327</v>
-      </c>
-      <c r="R11" s="119"/>
-      <c r="S11" s="116"/>
+      <c r="B11" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="228" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="229"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="130" t="s">
+        <v>360</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="233"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="115" t="s">
+        <v>306</v>
+      </c>
+      <c r="R11" s="116"/>
+      <c r="S11" s="113"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="61" t="s">
-        <v>95</v>
+      <c r="F12" s="58" t="s">
+        <v>81</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>90</v>
+      <c r="H12" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>76</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="214" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" s="215"/>
-      <c r="P12" s="216"/>
+      <c r="M12" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="219"/>
+      <c r="P12" s="220"/>
       <c r="Q12" s="3" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -6316,18 +6326,18 @@
       <c r="D13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="176"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="J13" s="117" t="s">
+      <c r="E13" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="182"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="J13" s="114" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -6339,19 +6349,19 @@
       <c r="M13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="218"/>
-      <c r="P13" s="219"/>
-      <c r="Q13" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="R13" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="S13" s="101" t="s">
-        <v>265</v>
+      <c r="N13" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="222"/>
+      <c r="P13" s="223"/>
+      <c r="Q13" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="R13" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="S13" s="98" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -6367,22 +6377,22 @@
       <c r="D14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="215"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="I14" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="J14" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>92</v>
+      <c r="E14" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="219"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>0</v>
@@ -6390,16 +6400,16 @@
       <c r="M14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="214" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="215"/>
-      <c r="P14" s="216"/>
-      <c r="Q14" s="193" t="s">
-        <v>329</v>
-      </c>
-      <c r="R14" s="194"/>
-      <c r="S14" s="195"/>
+      <c r="N14" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="219"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="199" t="s">
+        <v>308</v>
+      </c>
+      <c r="R14" s="200"/>
+      <c r="S14" s="201"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
@@ -6414,45 +6424,45 @@
       <c r="D15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="83" t="s">
-        <v>385</v>
-      </c>
-      <c r="I15" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="J15" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>94</v>
+      <c r="E15" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="J15" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="59" t="s">
+        <v>80</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="218"/>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="222"/>
+      <c r="P15" s="223"/>
+      <c r="Q15" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="114" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6461,123 +6471,123 @@
         <v>13</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="J16" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="214" t="s">
-        <v>86</v>
-      </c>
-      <c r="O16" s="215"/>
-      <c r="P16" s="216"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="220"/>
       <c r="Q16" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="R16" s="117" t="s">
-        <v>330</v>
+        <v>236</v>
+      </c>
+      <c r="R16" s="114" t="s">
+        <v>309</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="229"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="137" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
+      <c r="B17" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="235"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="76"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="138" t="s">
-        <v>345</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
+      <c r="B18" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="228"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
@@ -6592,37 +6602,37 @@
       <c r="D19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="214" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="215"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="185" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="186"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="217" t="s">
+      <c r="E19" s="218" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="219"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="218"/>
-      <c r="P19" s="219"/>
-      <c r="Q19" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="117" t="s">
+      <c r="L19" s="192"/>
+      <c r="M19" s="193"/>
+      <c r="N19" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="222"/>
+      <c r="P19" s="223"/>
+      <c r="Q19" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="114" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6639,35 +6649,35 @@
       <c r="D20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="214" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="215"/>
-      <c r="G20" s="216"/>
-      <c r="H20" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="I20" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="J20" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="K20" s="185" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="186"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="218"/>
-      <c r="P20" s="219"/>
-      <c r="Q20" s="175" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="176"/>
-      <c r="S20" s="177"/>
+      <c r="E20" s="218" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="219"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="K20" s="191" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="192"/>
+      <c r="M20" s="193"/>
+      <c r="N20" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="222"/>
+      <c r="P20" s="223"/>
+      <c r="Q20" s="181" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="182"/>
+      <c r="S20" s="183"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
@@ -6682,22 +6692,22 @@
       <c r="D21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>115</v>
+      <c r="E21" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="J21" s="117" t="s">
+      <c r="H21" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="J21" s="114" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="10" t="s">
@@ -6709,16 +6719,16 @@
       <c r="M21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="218"/>
-      <c r="P21" s="219"/>
-      <c r="Q21" s="193" t="s">
-        <v>325</v>
-      </c>
-      <c r="R21" s="194"/>
-      <c r="S21" s="195"/>
+      <c r="N21" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="222"/>
+      <c r="P21" s="223"/>
+      <c r="Q21" s="199" t="s">
+        <v>304</v>
+      </c>
+      <c r="R21" s="200"/>
+      <c r="S21" s="201"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
@@ -6730,40 +6740,40 @@
       <c r="C22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="175" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="177"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="111" t="s">
-        <v>386</v>
-      </c>
-      <c r="K22" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="232" t="s">
+      <c r="D22" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="183"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="108" t="s">
+        <v>363</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="233"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="193" t="s">
-        <v>327</v>
-      </c>
-      <c r="R22" s="194"/>
-      <c r="S22" s="111"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="238" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="239"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="199" t="s">
+        <v>306</v>
+      </c>
+      <c r="R22" s="200"/>
+      <c r="S22" s="108"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
@@ -6778,42 +6788,42 @@
       <c r="D23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="215"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="117" t="s">
+      <c r="E23" s="218" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="219"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="114" t="s">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="N23" s="214" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="215"/>
-      <c r="P23" s="216"/>
-      <c r="Q23" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="219"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="114" t="s">
         <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -6829,42 +6839,42 @@
       <c r="D24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="175" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="176"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="J24" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" s="218"/>
-      <c r="P24" s="219"/>
-      <c r="Q24" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="R24" s="117" t="s">
+      <c r="E24" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="182"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="222"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="R24" s="114" t="s">
         <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -6880,42 +6890,42 @@
       <c r="D25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="215"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="83" t="s">
-        <v>385</v>
-      </c>
-      <c r="I25" s="82" t="s">
-        <v>387</v>
-      </c>
-      <c r="J25" s="82" t="s">
-        <v>388</v>
+      <c r="E25" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="219"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="I25" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" s="218"/>
-      <c r="P25" s="219"/>
+        <v>90</v>
+      </c>
+      <c r="N25" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" s="222"/>
+      <c r="P25" s="223"/>
       <c r="Q25" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="R25" s="117" t="s">
-        <v>330</v>
+        <v>310</v>
+      </c>
+      <c r="R25" s="114" t="s">
+        <v>309</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -6931,42 +6941,42 @@
       <c r="D26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="215"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="J26" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="N26" s="214" t="s">
-        <v>86</v>
-      </c>
-      <c r="O26" s="215"/>
-      <c r="P26" s="216"/>
-      <c r="Q26" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="R26" s="117" t="s">
+      <c r="E26" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="219"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="J26" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="219"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="R26" s="114" t="s">
         <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -6974,51 +6984,51 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="175" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="177"/>
+      <c r="E27" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="183"/>
       <c r="G27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="I27" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="J27" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="60" t="s">
-        <v>57</v>
+        <v>104</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="K27" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>45</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="214" t="s">
-        <v>86</v>
-      </c>
-      <c r="O27" s="215"/>
-      <c r="P27" s="216"/>
-      <c r="Q27" s="101" t="s">
-        <v>333</v>
+      <c r="N27" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="219"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="98" t="s">
+        <v>312</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="S27" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="S27" s="114" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7027,101 +7037,101 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="175" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="176"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="83" t="s">
-        <v>389</v>
-      </c>
-      <c r="I28" s="82" t="s">
-        <v>387</v>
-      </c>
-      <c r="J28" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="N28" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O28" s="218"/>
-      <c r="P28" s="219"/>
-      <c r="Q28" s="101" t="s">
-        <v>213</v>
+      <c r="D28" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="E28" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="182"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="I28" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="J28" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="222"/>
+      <c r="P28" s="223"/>
+      <c r="Q28" s="98" t="s">
+        <v>194</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>26</v>
       </c>
-      <c r="B29" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="214" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="215"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="I29" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="133" t="s">
-        <v>345</v>
-      </c>
-      <c r="K29" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="60" t="s">
-        <v>107</v>
+      <c r="B29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="219"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="I29" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="K29" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N29" s="217" t="s">
-        <v>84</v>
-      </c>
-      <c r="O29" s="218"/>
-      <c r="P29" s="219"/>
-      <c r="Q29" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="R29" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="S29" s="101" t="s">
-        <v>265</v>
+        <v>94</v>
+      </c>
+      <c r="N29" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" s="222"/>
+      <c r="P29" s="223"/>
+      <c r="Q29" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="R29" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="S29" s="98" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -7146,64 +7156,64 @@
       <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="212" t="s">
+      <c r="A31" s="231" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="232"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="232"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="232"/>
+      <c r="R31" s="232"/>
+      <c r="S31" s="232"/>
+    </row>
+    <row r="32" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
+      <c r="B32" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="213"/>
-      <c r="P31" s="213"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-    </row>
-    <row r="32" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="143" t="s">
-        <v>342</v>
-      </c>
-      <c r="I32" s="144"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="143" t="s">
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="149" t="s">
+        <v>321</v>
+      </c>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="144"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="143" t="s">
+      <c r="L32" s="150"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="144"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="143" t="s">
+      <c r="O32" s="150"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="R32" s="144"/>
-      <c r="S32" s="145"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="151"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B33" s="21">
         <v>17</v>
@@ -7262,7 +7272,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B34" s="22">
         <v>3</v>
@@ -7321,7 +7331,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B35" s="23">
         <v>2</v>
@@ -7379,270 +7389,270 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="56">
+      <c r="A36" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="53">
         <v>4</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="62">
         <v>4</v>
       </c>
-      <c r="D36" s="65">
+      <c r="D36" s="62">
         <v>5</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="53">
         <v>4</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="62">
         <v>4</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="62">
         <v>5</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H36" s="53">
         <v>4</v>
       </c>
-      <c r="I36" s="65">
+      <c r="I36" s="62">
         <v>4</v>
       </c>
-      <c r="J36" s="65">
+      <c r="J36" s="62">
         <v>4</v>
       </c>
-      <c r="K36" s="56">
+      <c r="K36" s="53">
         <v>4</v>
       </c>
-      <c r="L36" s="65">
+      <c r="L36" s="62">
         <v>4</v>
       </c>
-      <c r="M36" s="65">
+      <c r="M36" s="62">
         <v>4</v>
       </c>
-      <c r="N36" s="56">
+      <c r="N36" s="53">
         <v>4</v>
       </c>
-      <c r="O36" s="65">
+      <c r="O36" s="62">
         <v>4</v>
       </c>
-      <c r="P36" s="65">
+      <c r="P36" s="62">
         <v>4</v>
       </c>
-      <c r="Q36" s="56">
+      <c r="Q36" s="53">
         <v>4</v>
       </c>
-      <c r="R36" s="65">
+      <c r="R36" s="62">
         <v>4</v>
       </c>
-      <c r="S36" s="65">
+      <c r="S36" s="62">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="57">
+      <c r="A37" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="54">
         <f t="shared" ref="B37:P37" si="0">SUM(B33:B35)</f>
         <v>22</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="54">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H37" s="57">
+      <c r="H37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J37" s="57">
+      <c r="J37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K37" s="57">
+      <c r="K37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L37" s="57">
+      <c r="L37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="M37" s="57">
+      <c r="M37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="N37" s="57">
+      <c r="N37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="O37" s="57">
+      <c r="O37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P37" s="57">
+      <c r="P37" s="54">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Q37" s="57">
+      <c r="Q37" s="54">
         <f t="shared" ref="Q37:S37" si="1">SUM(Q33:Q35)</f>
         <v>22</v>
       </c>
-      <c r="R37" s="57">
+      <c r="R37" s="54">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="S37" s="57">
+      <c r="S37" s="54">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="B38" s="146">
+    <row r="38" spans="1:19" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="152">
         <f>SUM(B33:D33)/SUM(B37:D37)</f>
         <v>0.81538461538461537</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146">
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152">
         <f>SUM(E33:G33)/SUM(E37:G37)</f>
         <v>9.2307692307692313E-2</v>
       </c>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146">
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152">
         <f>SUM(H33:J33)/SUM(H37:J37)</f>
         <v>0.43939393939393939</v>
       </c>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146">
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152">
         <f>SUM(K33:M33)/SUM(K37:M37)</f>
         <v>0.24242424242424243</v>
       </c>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146">
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152">
         <f>SUM(N32,O32,P32,P33,O33,N33)/SUM(N36,O36,P36)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="146"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146">
+      <c r="O38" s="152"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152">
         <f>SUM(Q33:S33)/SUM(Q37:S37)</f>
         <v>0.31818181818181818</v>
       </c>
-      <c r="R38" s="146"/>
-      <c r="S38" s="146"/>
-    </row>
-    <row r="39" spans="1:19" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="126" t="s">
-        <v>341</v>
-      </c>
-      <c r="B39" s="147">
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+    </row>
+    <row r="39" spans="1:19" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="153">
         <f>SUM(B33,C33,D33,D34,C34,B34)/SUM(B37,C37,D37)</f>
         <v>0.90769230769230769</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147">
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153">
         <f>SUM(E33,F33,G33,G34,F34,E34)/SUM(E37,F37,G37)</f>
         <v>0.13846153846153847</v>
       </c>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147">
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153">
         <f>SUM(H33,I33,J33,J34,I34,H34)/SUM(H37,I37,J37)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147">
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153">
         <f>SUM(K33,L33,M33,M34,L34,K34)/SUM(K37,L37,M37)</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147">
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153">
         <f>SUM(N33,O33,P33,P34,O34,N34)/SUM(N37,O37,P37)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="147"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="147">
+      <c r="O39" s="153"/>
+      <c r="P39" s="153"/>
+      <c r="Q39" s="153">
         <f>SUM(Q33,R33,S33,S34,R34,Q34)/SUM(Q37,R37,S37)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
+      <c r="R39" s="153"/>
+      <c r="S39" s="153"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="123"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="123"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="234" t="s">
-        <v>319</v>
-      </c>
-      <c r="B41" s="234"/>
-      <c r="C41" s="234"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234"/>
+      <c r="A41" s="240" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="240"/>
+      <c r="C41" s="240"/>
+      <c r="D41" s="240"/>
+      <c r="E41" s="240"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="234" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="234"/>
-      <c r="C42" s="234"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="234"/>
+      <c r="A42" s="240" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="240"/>
+      <c r="C42" s="240"/>
+      <c r="D42" s="240"/>
+      <c r="E42" s="240"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -7654,7 +7664,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -7673,8 +7683,8 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:19" s="91" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:19" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="81">
     <mergeCell ref="N39:P39"/>
@@ -7726,6 +7736,8 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="B2:D2"/>
@@ -7750,16 +7762,15 @@
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q22:R22"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q22:R22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7767,874 +7778,876 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865771CF-6E95-474B-850E-6C01114E9F7B}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="7" width="15.83203125" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="143" customWidth="1"/>
+    <col min="5" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="239"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="236"/>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="242"/>
+      <c r="B2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="100" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" s="100" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="B5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
+        <v>9</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="140" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="141" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
+        <v>12</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="137"/>
+      <c r="D17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
+        <v>16</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="137"/>
+      <c r="D18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="128" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="144" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="34">
+        <v>20</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="128" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
+        <v>25</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
+        <v>26</v>
+      </c>
+      <c r="B28" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="243" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="243"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+    </row>
+    <row r="31" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="94"/>
+      <c r="B31" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="F31" s="96" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
-        <v>2</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="105" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>3</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="G31" s="95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="106">
+        <v>16</v>
+      </c>
+      <c r="C32" s="106">
+        <v>12</v>
+      </c>
+      <c r="D32" s="106">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
-        <v>5</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="139" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
-        <v>6</v>
-      </c>
-      <c r="B8" s="40" t="s">
+      <c r="E32" s="106">
+        <v>0</v>
+      </c>
+      <c r="F32" s="117">
+        <v>9</v>
+      </c>
+      <c r="G32" s="106">
         <v>8</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="134" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="107" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
-        <v>7</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="132" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="106" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
-        <v>8</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="131" t="s">
-        <v>391</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
-        <v>9</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
-        <v>10</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>392</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
-        <v>11</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="105" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
-        <v>12</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="107" t="s">
-        <v>392</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
-        <v>13</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="134" t="s">
-        <v>393</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
-        <v>14</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="134" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="106" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
-        <v>15</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
-        <v>16</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
-        <v>17</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="131" t="s">
-        <v>355</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
-        <v>18</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
-        <v>19</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
-        <v>20</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
-        <v>21</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="131" t="s">
-        <v>395</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="105" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
-        <v>22</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
-        <v>23</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
-        <v>24</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="131" t="s">
-        <v>396</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
-        <v>25</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="105" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
-        <v>26</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="131" t="s">
-        <v>365</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="240" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="240"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-    </row>
-    <row r="31" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="98" t="s">
-        <v>350</v>
-      </c>
-      <c r="E31" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="109">
-        <v>16</v>
-      </c>
-      <c r="C32" s="109">
-        <v>6</v>
-      </c>
-      <c r="D32" s="109">
-        <v>12</v>
-      </c>
-      <c r="E32" s="109">
-        <v>3</v>
-      </c>
-      <c r="F32" s="109">
-        <v>0</v>
-      </c>
-      <c r="G32" s="120">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="B33" s="26">
+        <v>317</v>
+      </c>
+      <c r="B33" s="25">
         <v>5</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
+        <v>7</v>
+      </c>
+      <c r="D33" s="25">
+        <v>7</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0</v>
+      </c>
+      <c r="F33" s="118">
+        <v>4</v>
+      </c>
+      <c r="G33" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="27">
+        <v>2</v>
+      </c>
+      <c r="C34" s="27">
+        <v>4</v>
+      </c>
+      <c r="D34" s="27">
+        <v>12</v>
+      </c>
+      <c r="E34" s="27">
+        <v>23</v>
+      </c>
+      <c r="F34" s="119">
         <v>10</v>
       </c>
-      <c r="D33" s="26">
+      <c r="G34" s="27">
         <v>7</v>
       </c>
-      <c r="E33" s="26">
-        <v>8</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-      <c r="G33" s="121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="28">
-        <v>2</v>
-      </c>
-      <c r="C34" s="28">
-        <v>7</v>
-      </c>
-      <c r="D34" s="28">
-        <v>4</v>
-      </c>
-      <c r="E34" s="28">
-        <v>12</v>
-      </c>
-      <c r="F34" s="28">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="62">
+        <v>3</v>
+      </c>
+      <c r="C35" s="62">
+        <v>3</v>
+      </c>
+      <c r="D35" s="62">
+        <v>3</v>
+      </c>
+      <c r="E35" s="62">
+        <v>3</v>
+      </c>
+      <c r="F35" s="111">
+        <v>3</v>
+      </c>
+      <c r="G35" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="93">
+        <f t="shared" ref="B36:F36" si="0">SUM(B32:B34)</f>
         <v>23</v>
       </c>
-      <c r="G34" s="122">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="65">
-        <v>3</v>
-      </c>
-      <c r="C35" s="65">
-        <v>3</v>
-      </c>
-      <c r="D35" s="65">
-        <v>3</v>
-      </c>
-      <c r="E35" s="65">
-        <v>3</v>
-      </c>
-      <c r="F35" s="65">
-        <v>3</v>
-      </c>
-      <c r="G35" s="114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="96">
-        <f t="shared" ref="B36:G36" si="0">SUM(B32:B34)</f>
-        <v>23</v>
-      </c>
-      <c r="C36" s="96">
+      <c r="C36" s="93">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D36" s="96">
+      <c r="D36" s="93">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E36" s="96">
+      <c r="E36" s="93">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F36" s="96">
+      <c r="F36" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G36" s="34">
-        <f t="shared" si="0"/>
+      <c r="G36" s="93">
+        <f t="shared" ref="G36" si="1">SUM(G32:G34)</f>
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="B39" s="127">
-        <f t="shared" ref="B39:G39" si="1">B32/B36</f>
+      <c r="A39" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" s="124">
+        <f t="shared" ref="B39:F39" si="2">B32/B36</f>
         <v>0.69565217391304346</v>
       </c>
-      <c r="C39" s="127">
-        <f t="shared" si="1"/>
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="D39" s="127">
-        <f t="shared" si="1"/>
+      <c r="C39" s="124">
+        <f t="shared" si="2"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E39" s="127">
-        <f t="shared" si="1"/>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="F39" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="127">
-        <f t="shared" si="1"/>
+      <c r="D39" s="145">
+        <f t="shared" si="2"/>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="E39" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="124">
+        <f t="shared" si="2"/>
         <v>0.39130434782608697</v>
       </c>
+      <c r="G39" s="124">
+        <f t="shared" ref="G39" si="3">G32/G36</f>
+        <v>0.34782608695652173</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="126" t="s">
-        <v>341</v>
-      </c>
-      <c r="B40" s="129">
-        <f t="shared" ref="B40:G40" si="2">SUM(B32,B33)/B36</f>
+      <c r="A40" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="126">
+        <f t="shared" ref="B40:F40" si="4">SUM(B32,B33)/B36</f>
         <v>0.91304347826086951</v>
       </c>
-      <c r="C40" s="129">
-        <f t="shared" si="2"/>
+      <c r="C40" s="126">
+        <f t="shared" si="4"/>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="D40" s="146">
+        <f t="shared" si="4"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="E40" s="126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="126">
+        <f t="shared" si="4"/>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="G40" s="126">
+        <f t="shared" ref="G40" si="5">SUM(G32,G33)/G36</f>
         <v>0.69565217391304346</v>
-      </c>
-      <c r="D40" s="129">
-        <f t="shared" si="2"/>
-        <v>0.82608695652173914</v>
-      </c>
-      <c r="E40" s="129">
-        <f t="shared" si="2"/>
-        <v>0.47826086956521741</v>
-      </c>
-      <c r="F40" s="129">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="129">
-        <f t="shared" si="2"/>
-        <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/eva/_results/result_copy.xlsx
+++ b/eva/_results/result_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minghe/llm4faas/eva/_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C3A87-E017-8644-A02F-0D1985E85C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB683AD-E5FB-3F40-B30F-BDEE26B2C9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{722548EF-65F8-7844-B682-C9AB7C87B0A2}"/>
+    <workbookView xWindow="160" yWindow="600" windowWidth="20260" windowHeight="21020" activeTab="1" xr2:uid="{722548EF-65F8-7844-B682-C9AB7C87B0A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Adapt" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="391">
   <si>
     <t>✅</t>
   </si>
@@ -416,9 +416,6 @@
     <t>Import errors; ✅</t>
   </si>
   <si>
-    <t>Import error; ✅</t>
-  </si>
-  <si>
     <t>cannot get sensor readings; ✅</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>cannot get sensor readings; provide related function, but not the final auto adapt fucntion</t>
   </si>
   <si>
-    <t>Import Errors; cannot get sensor readings; only check but not adapt environment</t>
-  </si>
-  <si>
     <t>TypeError; AttributeError</t>
   </si>
   <si>
@@ -1215,6 +1209,9 @@
   </si>
   <si>
     <t>prompt requires using ac to adjust humidity</t>
+  </si>
+  <si>
+    <t>cannot get sensor readings; only check but not adapt environment</t>
   </si>
 </sst>
 </file>
@@ -2950,8 +2947,8 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3001,7 +2998,7 @@
       <c r="F2" s="148"/>
       <c r="G2" s="148"/>
       <c r="H2" s="147" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I2" s="148"/>
       <c r="J2" s="148"/>
@@ -3092,27 +3089,27 @@
         <v>0</v>
       </c>
       <c r="E4" s="175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="176"/>
       <c r="G4" s="177"/>
       <c r="H4" s="127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I4" s="127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J4" s="127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K4" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="84" t="s">
         <v>182</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="84" t="s">
-        <v>184</v>
       </c>
       <c r="N4" s="172" t="s">
         <v>120</v>
@@ -3120,7 +3117,7 @@
       <c r="O4" s="173"/>
       <c r="P4" s="174"/>
       <c r="Q4" s="161" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R4" s="162"/>
       <c r="S4" s="163"/>
@@ -3135,31 +3132,31 @@
       <c r="C5" s="182"/>
       <c r="D5" s="183"/>
       <c r="E5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N5" s="169" t="s">
         <v>15</v>
@@ -3167,7 +3164,7 @@
       <c r="O5" s="170"/>
       <c r="P5" s="171"/>
       <c r="Q5" s="154" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R5" s="155"/>
       <c r="S5" s="156"/>
@@ -3177,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="188" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="189"/>
       <c r="D6" s="190"/>
@@ -3187,22 +3184,22 @@
       <c r="F6" s="192"/>
       <c r="G6" s="193"/>
       <c r="H6" s="127" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I6" s="127" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J6" s="127" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K6" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="L6" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6" s="85" t="s">
-        <v>189</v>
       </c>
       <c r="N6" s="169" t="s">
         <v>15</v>
@@ -3210,7 +3207,7 @@
       <c r="O6" s="170"/>
       <c r="P6" s="171"/>
       <c r="Q6" s="154" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R6" s="155"/>
       <c r="S6" s="156"/>
@@ -3225,7 +3222,7 @@
       <c r="C7" s="182"/>
       <c r="D7" s="183"/>
       <c r="E7" s="188" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="189"/>
       <c r="G7" s="190"/>
@@ -3236,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L7" s="50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N7" s="169" t="s">
         <v>15</v>
@@ -3253,7 +3250,7 @@
       <c r="O7" s="170"/>
       <c r="P7" s="171"/>
       <c r="Q7" s="154" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R7" s="155"/>
       <c r="S7" s="156"/>
@@ -3272,21 +3269,21 @@
         <v>0</v>
       </c>
       <c r="E8" s="191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="192"/>
       <c r="G8" s="193"/>
       <c r="H8" s="80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J8" s="80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K8" s="178" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L8" s="179"/>
       <c r="M8" s="180"/>
@@ -3296,7 +3293,7 @@
       <c r="O8" s="170"/>
       <c r="P8" s="171"/>
       <c r="Q8" s="154" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R8" s="155"/>
       <c r="S8" s="156"/>
@@ -3315,27 +3312,27 @@
         <v>0</v>
       </c>
       <c r="E9" s="188" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="189"/>
       <c r="G9" s="190"/>
       <c r="H9" s="80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K9" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" s="86" t="s">
         <v>195</v>
-      </c>
-      <c r="L9" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="M9" s="86" t="s">
-        <v>197</v>
       </c>
       <c r="N9" s="169" t="s">
         <v>15</v>
@@ -3343,7 +3340,7 @@
       <c r="O9" s="170"/>
       <c r="P9" s="171"/>
       <c r="Q9" s="154" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R9" s="155"/>
       <c r="S9" s="156"/>
@@ -3361,11 +3358,11 @@
       <c r="D10" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="191" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="192"/>
-      <c r="G10" s="193"/>
+      <c r="E10" s="188" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="189"/>
+      <c r="G10" s="190"/>
       <c r="H10" s="80" t="s">
         <v>28</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="181" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L10" s="182"/>
       <c r="M10" s="183"/>
@@ -3386,7 +3383,7 @@
       <c r="O10" s="170"/>
       <c r="P10" s="171"/>
       <c r="Q10" s="154" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R10" s="155"/>
       <c r="S10" s="156"/>
@@ -3405,22 +3402,22 @@
         <v>0</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="81" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J11" s="127" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K11" s="181" t="s">
         <v>45</v>
@@ -3433,13 +3430,13 @@
       <c r="O11" s="170"/>
       <c r="P11" s="171"/>
       <c r="Q11" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R11" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S11" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -3456,27 +3453,27 @@
         <v>0</v>
       </c>
       <c r="E12" s="211" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F12" s="212"/>
       <c r="G12" s="213"/>
       <c r="H12" s="80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I12" s="80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N12" s="169" t="s">
         <v>122</v>
@@ -3494,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="81" t="s">
         <v>0</v>
@@ -3503,31 +3500,31 @@
         <v>0</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J13" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K13" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="M13" s="50" t="s">
         <v>200</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>202</v>
       </c>
       <c r="N13" s="169" t="s">
         <v>15</v>
@@ -3535,7 +3532,7 @@
       <c r="O13" s="170"/>
       <c r="P13" s="171"/>
       <c r="Q13" s="154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R13" s="155"/>
       <c r="S13" s="156"/>
@@ -3545,7 +3542,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="81" t="s">
         <v>0</v>
@@ -3554,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="191" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F14" s="192"/>
       <c r="G14" s="193"/>
@@ -3568,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="N14" s="169" t="s">
         <v>123</v>
@@ -3592,43 +3589,43 @@
         <v>12</v>
       </c>
       <c r="B15" s="199" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="200"/>
       <c r="D15" s="201"/>
       <c r="E15" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="214" t="s">
         <v>114</v>
       </c>
       <c r="G15" s="193"/>
       <c r="H15" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I15" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J15" s="79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K15" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="L15" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="50" t="s">
-        <v>208</v>
-      </c>
       <c r="M15" s="50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="79" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R15" s="160" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S15" s="156"/>
     </row>
@@ -3646,27 +3643,27 @@
         <v>0</v>
       </c>
       <c r="E16" s="191" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="192"/>
       <c r="G16" s="193"/>
       <c r="H16" s="80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I16" s="80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J16" s="80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="N16" s="169" t="s">
         <v>15</v>
@@ -3674,7 +3671,7 @@
       <c r="O16" s="170"/>
       <c r="P16" s="171"/>
       <c r="Q16" s="154" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R16" s="155"/>
       <c r="S16" s="156"/>
@@ -3684,36 +3681,36 @@
         <v>14</v>
       </c>
       <c r="B17" s="188" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="189"/>
       <c r="D17" s="190"/>
       <c r="E17" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N17" s="169" t="s">
         <v>120</v>
@@ -3721,7 +3718,7 @@
       <c r="O17" s="170"/>
       <c r="P17" s="171"/>
       <c r="Q17" s="157" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R17" s="158"/>
       <c r="S17" s="159"/>
@@ -3737,30 +3734,30 @@
         <v>0</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E18" s="191" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" s="192"/>
       <c r="G18" s="193"/>
       <c r="H18" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="J18" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="I18" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>342</v>
-      </c>
       <c r="K18" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="86" t="s">
         <v>215</v>
-      </c>
-      <c r="L18" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="M18" s="86" t="s">
-        <v>217</v>
       </c>
       <c r="N18" s="169" t="s">
         <v>15</v>
@@ -3768,13 +3765,13 @@
       <c r="O18" s="170"/>
       <c r="P18" s="171"/>
       <c r="Q18" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="S18" s="79" t="s">
         <v>286</v>
-      </c>
-      <c r="R18" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="S18" s="79" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -3799,31 +3796,31 @@
         <v>0</v>
       </c>
       <c r="I19" s="80" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J19" s="80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R19" s="79" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S19" s="79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -3831,12 +3828,12 @@
         <v>17</v>
       </c>
       <c r="B20" s="202" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="203"/>
       <c r="D20" s="204"/>
       <c r="E20" s="188" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="189"/>
       <c r="G20" s="190"/>
@@ -3847,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="80" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N20" s="169" t="s">
         <v>15</v>
@@ -3864,7 +3861,7 @@
       <c r="O20" s="170"/>
       <c r="P20" s="171"/>
       <c r="Q20" s="154" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R20" s="155"/>
       <c r="S20" s="156"/>
@@ -3883,27 +3880,27 @@
         <v>0</v>
       </c>
       <c r="E21" s="191" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="192"/>
       <c r="G21" s="193"/>
       <c r="H21" s="127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I21" s="127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J21" s="127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K21" s="50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L21" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N21" s="169" t="s">
         <v>120</v>
@@ -3911,7 +3908,7 @@
       <c r="O21" s="170"/>
       <c r="P21" s="171"/>
       <c r="Q21" s="154" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R21" s="155"/>
       <c r="S21" s="156"/>
@@ -3921,32 +3918,32 @@
         <v>19</v>
       </c>
       <c r="B22" s="181" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="182"/>
       <c r="D22" s="183"/>
       <c r="E22" s="188" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F22" s="189"/>
       <c r="G22" s="190"/>
       <c r="H22" s="80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I22" s="80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N22" s="169" t="s">
         <v>15</v>
@@ -3954,7 +3951,7 @@
       <c r="O22" s="170"/>
       <c r="P22" s="171"/>
       <c r="Q22" s="154" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R22" s="155"/>
       <c r="S22" s="156"/>
@@ -3970,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="191" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F23" s="192"/>
       <c r="G23" s="193"/>
@@ -3984,16 +3981,16 @@
         <v>28</v>
       </c>
       <c r="J23" s="80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K23" s="50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L23" s="50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N23" s="169" t="s">
         <v>15</v>
@@ -4001,7 +3998,7 @@
       <c r="O23" s="170"/>
       <c r="P23" s="171"/>
       <c r="Q23" s="154" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R23" s="155"/>
       <c r="S23" s="156"/>
@@ -4014,20 +4011,20 @@
         <v>0</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="81" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>170</v>
-      </c>
       <c r="H24" s="81" t="s">
         <v>0</v>
       </c>
@@ -4038,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N24" s="169" t="s">
         <v>15</v>
@@ -4052,13 +4049,13 @@
       <c r="O24" s="170"/>
       <c r="P24" s="171"/>
       <c r="Q24" s="79" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R24" s="77" t="s">
         <v>70</v>
       </c>
       <c r="S24" s="79" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -4066,42 +4063,42 @@
         <v>22</v>
       </c>
       <c r="B25" s="202" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="203"/>
       <c r="D25" s="204"/>
       <c r="E25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="H25" s="80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I25" s="80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J25" s="80" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K25" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="L25" s="50" t="s">
-        <v>235</v>
-      </c>
       <c r="M25" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="13"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R25" s="155"/>
       <c r="S25" s="156"/>
@@ -4120,31 +4117,31 @@
         <v>0</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G26" s="84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H26" s="81" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J26" s="81" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N26" s="169" t="s">
         <v>120</v>
@@ -4152,7 +4149,7 @@
       <c r="O26" s="170"/>
       <c r="P26" s="171"/>
       <c r="Q26" s="157" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R26" s="158"/>
       <c r="S26" s="159"/>
@@ -4162,34 +4159,34 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H27" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="J27" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="I27" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="J27" s="80" t="s">
-        <v>347</v>
-      </c>
       <c r="K27" s="165" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L27" s="166"/>
       <c r="M27" s="167"/>
@@ -4199,13 +4196,13 @@
       <c r="O27" s="170"/>
       <c r="P27" s="171"/>
       <c r="Q27" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="R27" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="S27" s="79" t="s">
         <v>293</v>
-      </c>
-      <c r="R27" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="S27" s="79" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -4216,13 +4213,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D28" s="81" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="208" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="209"/>
       <c r="G28" s="210"/>
@@ -4236,13 +4233,13 @@
         <v>28</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L28" s="50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N28" s="169" t="s">
         <v>15</v>
@@ -4250,7 +4247,7 @@
       <c r="O28" s="170"/>
       <c r="P28" s="171"/>
       <c r="Q28" s="154" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R28" s="155"/>
       <c r="S28" s="156"/>
@@ -4269,25 +4266,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F29" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="84" t="s">
-        <v>173</v>
-      </c>
       <c r="H29" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="I29" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="J29" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="I29" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="J29" s="80" t="s">
-        <v>347</v>
-      </c>
       <c r="K29" s="165" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L29" s="166"/>
       <c r="M29" s="167"/>
@@ -4295,7 +4292,7 @@
       <c r="O29" s="16"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="196" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R29" s="197"/>
       <c r="S29" s="198"/>
@@ -4378,7 +4375,7 @@
       <c r="F33" s="150"/>
       <c r="G33" s="151"/>
       <c r="H33" s="149" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I33" s="150"/>
       <c r="J33" s="151"/>
@@ -4459,7 +4456,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B35" s="22">
         <v>6</v>
@@ -4471,13 +4468,13 @@
         <v>8</v>
       </c>
       <c r="E35" s="22">
+        <v>10</v>
+      </c>
+      <c r="F35" s="22">
         <v>9</v>
       </c>
-      <c r="F35" s="22">
-        <v>8</v>
-      </c>
       <c r="G35" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H35" s="22">
         <v>14</v>
@@ -4530,13 +4527,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="23">
+        <v>16</v>
+      </c>
+      <c r="F36" s="23">
         <v>17</v>
       </c>
-      <c r="F36" s="23">
-        <v>18</v>
-      </c>
       <c r="G36" s="23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="23">
         <v>5</v>
@@ -4713,7 +4710,7 @@
     </row>
     <row r="41" spans="1:19" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B41" s="152">
         <f>SUM(B34,C34,D34)/SUM(B38:D38)</f>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="42" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="123" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B42" s="153">
         <f>SUM(B34:D35)/SUM(B38:D38)</f>
@@ -4764,7 +4761,7 @@
       <c r="D42" s="153"/>
       <c r="E42" s="153">
         <f>SUM(E34:G35)/SUM(E38:G38)</f>
-        <v>0.32051282051282054</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="F42" s="153"/>
       <c r="G42" s="153"/>
@@ -4905,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE7BA8A-1596-574F-BB58-7598A3EECCCA}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4940,7 +4937,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E2" s="82" t="s">
         <v>3</v>
@@ -4957,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>105</v>
@@ -4966,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4980,13 +4977,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="128" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E4" s="74" t="s">
         <v>45</v>
@@ -4995,7 +4992,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5009,16 +5006,16 @@
         <v>106</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5032,7 +5029,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E6" s="74" t="s">
         <v>45</v>
@@ -5041,7 +5038,7 @@
         <v>120</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5077,13 +5074,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5097,7 +5094,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>0</v>
@@ -5106,30 +5103,30 @@
         <v>15</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>125</v>
+      <c r="B10" s="80" t="s">
+        <v>326</v>
       </c>
       <c r="C10" s="75" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5140,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" s="129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>0</v>
@@ -5152,7 +5149,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5169,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5189,7 +5186,7 @@
         <v>108</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E13" s="75" t="s">
         <v>28</v>
@@ -5198,7 +5195,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5212,7 +5209,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="128" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E14" s="77" t="s">
         <v>45</v>
@@ -5221,7 +5218,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5229,10 +5226,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D15" s="128" t="s">
         <v>28</v>
@@ -5244,7 +5241,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5254,7 +5251,7 @@
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="133" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>28</v>
@@ -5271,7 +5268,7 @@
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
       <c r="D17" s="133" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E17" s="76" t="s">
         <v>113</v>
@@ -5292,7 +5289,7 @@
         <v>112</v>
       </c>
       <c r="D18" s="133" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>28</v>
@@ -5301,7 +5298,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5309,22 +5306,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="101" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5347,7 +5344,7 @@
         <v>120</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5378,7 +5375,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" s="77" t="s">
         <v>45</v>
@@ -5387,7 +5384,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -5404,13 +5401,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="100" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5424,7 +5421,7 @@
         <v>115</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E24" s="75" t="s">
         <v>28</v>
@@ -5433,7 +5430,7 @@
         <v>120</v>
       </c>
       <c r="G24" s="101" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -5441,13 +5438,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="138" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C25" s="75" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E25" s="75" t="s">
         <v>28</v>
@@ -5456,7 +5453,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -5464,13 +5461,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="128" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>117</v>
       </c>
       <c r="D26" s="128" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E26" s="75" t="s">
         <v>28</v>
@@ -5479,7 +5476,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="110" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -5487,22 +5484,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="77" t="s">
         <v>114</v>
       </c>
       <c r="D27" s="128" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5510,13 +5507,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C28" s="112" t="s">
         <v>118</v>
       </c>
       <c r="D28" s="128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="75" t="s">
         <v>28</v>
@@ -5525,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="110" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5573,7 +5570,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B32" s="22">
         <v>5</v>
@@ -5671,7 +5668,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B38" s="124">
         <f t="shared" ref="B38:G38" si="1">B31/B35</f>
@@ -5700,7 +5697,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="123" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B39" s="126">
         <f t="shared" ref="B39:G39" si="2">SUM(B31,B32)/B35</f>
@@ -5743,7 +5740,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5801,7 +5798,7 @@
       <c r="F2" s="148"/>
       <c r="G2" s="148"/>
       <c r="H2" s="148" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I2" s="148"/>
       <c r="J2" s="148"/>
@@ -5886,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>0</v>
@@ -5900,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J4" s="114" t="s">
         <v>0</v>
@@ -5916,13 +5913,13 @@
       <c r="O4" s="222"/>
       <c r="P4" s="223"/>
       <c r="Q4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R4" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="R4" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -5947,10 +5944,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J5" s="130" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>43</v>
@@ -5967,13 +5964,13 @@
       <c r="O5" s="222"/>
       <c r="P5" s="223"/>
       <c r="Q5" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R5" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S5" s="98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -6010,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N6" s="221" t="s">
         <v>70</v>
@@ -6018,13 +6015,13 @@
       <c r="O6" s="222"/>
       <c r="P6" s="223"/>
       <c r="Q6" s="98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R6" s="98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S6" s="98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -6047,16 +6044,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="130" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="79" t="s">
         <v>324</v>
       </c>
-      <c r="H7" s="79" t="s">
-        <v>326</v>
-      </c>
       <c r="I7" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K7" s="181" t="s">
         <v>74</v>
@@ -6075,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -6100,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="79" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J8" s="114" t="s">
         <v>0</v>
@@ -6148,13 +6145,13 @@
         <v>45</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I9" s="134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -6190,10 +6187,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="130" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J10" s="130" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>0</v>
@@ -6210,13 +6207,13 @@
       <c r="O10" s="222"/>
       <c r="P10" s="223"/>
       <c r="Q10" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R10" s="83" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -6240,7 +6237,7 @@
       <c r="H11" s="134"/>
       <c r="I11" s="76"/>
       <c r="J11" s="130" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
@@ -6253,7 +6250,7 @@
         <v>70</v>
       </c>
       <c r="Q11" s="115" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R11" s="116"/>
       <c r="S11" s="113"/>
@@ -6304,7 +6301,7 @@
       <c r="O12" s="219"/>
       <c r="P12" s="220"/>
       <c r="Q12" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>58</v>
@@ -6335,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J13" s="114" t="s">
         <v>0</v>
@@ -6355,13 +6352,13 @@
       <c r="O13" s="222"/>
       <c r="P13" s="223"/>
       <c r="Q13" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R13" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S13" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -6383,13 +6380,13 @@
       <c r="F14" s="219"/>
       <c r="G14" s="220"/>
       <c r="H14" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I14" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K14" s="59" t="s">
         <v>78</v>
@@ -6406,7 +6403,7 @@
       <c r="O14" s="219"/>
       <c r="P14" s="220"/>
       <c r="Q14" s="199" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R14" s="200"/>
       <c r="S14" s="201"/>
@@ -6434,10 +6431,10 @@
         <v>98</v>
       </c>
       <c r="H15" s="80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I15" s="80" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J15" s="114" t="s">
         <v>0</v>
@@ -6489,13 +6486,13 @@
         <v>98</v>
       </c>
       <c r="H16" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I16" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J16" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K16" s="57" t="s">
         <v>73</v>
@@ -6512,13 +6509,13 @@
       <c r="O16" s="219"/>
       <c r="P16" s="220"/>
       <c r="Q16" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R16" s="114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -6575,7 +6572,7 @@
       <c r="H18" s="134"/>
       <c r="I18" s="76"/>
       <c r="J18" s="135" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K18" s="61" t="s">
         <v>83</v>
@@ -6655,13 +6652,13 @@
       <c r="F20" s="219"/>
       <c r="G20" s="220"/>
       <c r="H20" s="80" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I20" s="80" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J20" s="80" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K20" s="191" t="s">
         <v>85</v>
@@ -6705,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J21" s="114" t="s">
         <v>0</v>
@@ -6725,7 +6722,7 @@
       <c r="O21" s="222"/>
       <c r="P21" s="223"/>
       <c r="Q21" s="199" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R21" s="200"/>
       <c r="S21" s="201"/>
@@ -6755,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="108" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K22" s="57" t="s">
         <v>73</v>
@@ -6770,7 +6767,7 @@
       <c r="O22" s="239"/>
       <c r="P22" s="61"/>
       <c r="Q22" s="199" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R22" s="200"/>
       <c r="S22" s="108"/>
@@ -6823,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -6848,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J24" s="114" t="s">
         <v>0</v>
@@ -6868,13 +6865,13 @@
       <c r="O24" s="222"/>
       <c r="P24" s="223"/>
       <c r="Q24" s="98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R24" s="114" t="s">
         <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -6896,13 +6893,13 @@
       <c r="F25" s="219"/>
       <c r="G25" s="220"/>
       <c r="H25" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="I25" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="I25" s="79" t="s">
-        <v>364</v>
-      </c>
       <c r="J25" s="79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>89</v>
@@ -6919,13 +6916,13 @@
       <c r="O25" s="222"/>
       <c r="P25" s="223"/>
       <c r="Q25" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R25" s="114" t="s">
+        <v>307</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -6950,10 +6947,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J26" s="130" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K26" s="57" t="s">
         <v>45</v>
@@ -6970,13 +6967,13 @@
       <c r="O26" s="219"/>
       <c r="P26" s="220"/>
       <c r="Q26" s="98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R26" s="114" t="s">
         <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -7000,13 +6997,13 @@
         <v>104</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I27" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J27" s="79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K27" s="57" t="s">
         <v>45</v>
@@ -7023,10 +7020,10 @@
       <c r="O27" s="219"/>
       <c r="P27" s="220"/>
       <c r="Q27" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S27" s="114" t="s">
         <v>0</v>
@@ -7043,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E28" s="181" t="s">
         <v>81</v>
@@ -7051,13 +7048,13 @@
       <c r="F28" s="182"/>
       <c r="G28" s="183"/>
       <c r="H28" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I28" s="79" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J28" s="130" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K28" s="57" t="s">
         <v>45</v>
@@ -7074,13 +7071,13 @@
       <c r="O28" s="222"/>
       <c r="P28" s="223"/>
       <c r="Q28" s="98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -7094,7 +7091,7 @@
         <v>63</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E29" s="218" t="s">
         <v>95</v>
@@ -7102,13 +7099,13 @@
       <c r="F29" s="219"/>
       <c r="G29" s="220"/>
       <c r="H29" s="79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I29" s="114" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="130" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K29" s="57" t="s">
         <v>45</v>
@@ -7125,13 +7122,13 @@
       <c r="O29" s="222"/>
       <c r="P29" s="223"/>
       <c r="Q29" s="98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="R29" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S29" s="98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -7191,7 +7188,7 @@
       <c r="F32" s="150"/>
       <c r="G32" s="151"/>
       <c r="H32" s="149" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I32" s="150"/>
       <c r="J32" s="151"/>
@@ -7272,7 +7269,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B34" s="22">
         <v>3</v>
@@ -7526,7 +7523,7 @@
     </row>
     <row r="38" spans="1:19" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B38" s="152">
         <f>SUM(B33:D33)/SUM(B37:D37)</f>
@@ -7567,7 +7564,7 @@
     </row>
     <row r="39" spans="1:19" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="123" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B39" s="153">
         <f>SUM(B33,C33,D33,D34,C34,B34)/SUM(B37,C37,D37)</f>
@@ -7628,7 +7625,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="240" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B41" s="240"/>
       <c r="C41" s="240"/>
@@ -7640,7 +7637,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="240" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="240"/>
       <c r="C42" s="240"/>
@@ -7652,7 +7649,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -7664,7 +7661,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -7779,7 +7776,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7809,7 +7806,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2" s="97" t="s">
         <v>3</v>
@@ -7844,7 +7841,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7864,7 +7861,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>37</v>
@@ -7887,7 +7884,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>0</v>
@@ -7910,7 +7907,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>0</v>
@@ -7924,7 +7921,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>19</v>
@@ -7947,7 +7944,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D8" s="140" t="s">
         <v>26</v>
@@ -7956,7 +7953,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>38</v>
@@ -7967,10 +7964,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D9" s="140" t="s">
         <v>27</v>
@@ -7979,7 +7976,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>40</v>
@@ -7990,10 +7987,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D10" s="141" t="s">
         <v>28</v>
@@ -8013,19 +8010,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C11" s="104" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="140" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>39</v>
@@ -8039,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>0</v>
@@ -8048,7 +8045,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>0</v>
@@ -8065,13 +8062,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="141" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>41</v>
@@ -8082,10 +8079,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D14" s="140" t="s">
         <v>30</v>
@@ -8105,10 +8102,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D15" s="140" t="s">
         <v>30</v>
@@ -8117,7 +8114,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>43</v>
@@ -8131,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>30</v>
@@ -8140,7 +8137,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="103" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>0</v>
@@ -8196,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D19" s="140" t="s">
         <v>30</v>
@@ -8205,10 +8202,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -8219,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D20" s="144" t="s">
         <v>31</v>
@@ -8228,7 +8225,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="103" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G20" s="106" t="s">
         <v>44</v>
@@ -8260,7 +8257,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C22" s="104" t="s">
         <v>0</v>
@@ -8272,7 +8269,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>24</v>
@@ -8286,7 +8283,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D23" s="141" t="s">
         <v>28</v>
@@ -8295,7 +8292,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>45</v>
@@ -8341,7 +8338,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>24</v>
@@ -8355,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D26" s="140" t="s">
         <v>24</v>
@@ -8378,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D27" s="140" t="s">
         <v>35</v>
@@ -8387,7 +8384,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>45</v>
@@ -8398,10 +8395,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="128" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C28" s="128" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D28" s="142" t="s">
         <v>36</v>
@@ -8432,7 +8429,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D31" s="95" t="s">
         <v>3</v>
@@ -8472,7 +8469,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B33" s="25">
         <v>5</v>
@@ -8570,7 +8567,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="121" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B39" s="124">
         <f t="shared" ref="B39:F39" si="2">B32/B36</f>
@@ -8599,7 +8596,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="123" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B40" s="126">
         <f t="shared" ref="B40:F40" si="4">SUM(B32,B33)/B36</f>
@@ -8628,17 +8625,17 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
